--- a/Import/Dagri Regency.xlsx
+++ b/Import/Dagri Regency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BF95D-08A1-4F19-94A7-04335067E77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B311452-C816-4D9B-B850-A9FAE38B5B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{254525F0-256E-4AEE-940B-44DAAF5F50AC}"/>
   </bookViews>
@@ -3505,7 +3505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92DACD-5DE6-404B-901C-D460102C040B}">
   <dimension ref="A1:C516"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C516"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
